--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp10-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp10-Acvr2a.xlsx
@@ -534,22 +534,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H2">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I2">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J2">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N2">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O2">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P2">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q2">
-        <v>9.811198575775776</v>
+        <v>3.366043373663334</v>
       </c>
       <c r="R2">
-        <v>88.30078718198199</v>
+        <v>30.29439036297</v>
       </c>
       <c r="S2">
-        <v>0.1952977006702703</v>
+        <v>0.07051613081037779</v>
       </c>
       <c r="T2">
-        <v>0.2039096869710661</v>
+        <v>0.07535083354408391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H3">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I3">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J3">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>88.626007</v>
       </c>
       <c r="O3">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P3">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q3">
-        <v>22.12029310247344</v>
+        <v>10.75962068516678</v>
       </c>
       <c r="R3">
-        <v>199.082637922261</v>
+        <v>96.83658616650101</v>
       </c>
       <c r="S3">
-        <v>0.4403174951256061</v>
+        <v>0.2254061328031936</v>
       </c>
       <c r="T3">
-        <v>0.4597340485361588</v>
+        <v>0.2408603506386586</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H4">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I4">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J4">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N4">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O4">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P4">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q4">
-        <v>4.429633894344112</v>
+        <v>2.676913919182445</v>
       </c>
       <c r="R4">
-        <v>39.866705049097</v>
+        <v>24.092225272642</v>
       </c>
       <c r="S4">
-        <v>0.08817447814301284</v>
+        <v>0.05607937603244633</v>
       </c>
       <c r="T4">
-        <v>0.09206268263923219</v>
+        <v>0.05992427094503987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H5">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I5">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J5">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N5">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O5">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P5">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q5">
-        <v>6.103379020506167</v>
+        <v>4.410817137511833</v>
       </c>
       <c r="R5">
-        <v>36.620274123037</v>
+        <v>26.464902825071</v>
       </c>
       <c r="S5">
-        <v>0.1214913631416099</v>
+        <v>0.09240337206675273</v>
       </c>
       <c r="T5">
-        <v>0.08456582179537823</v>
+        <v>0.06582580021051719</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H6">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I6">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J6">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N6">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O6">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P6">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q6">
-        <v>5.706268175167222</v>
+        <v>1.701405526711445</v>
       </c>
       <c r="R6">
-        <v>51.35641357650499</v>
+        <v>15.312649740403</v>
       </c>
       <c r="S6">
-        <v>0.1135866372911507</v>
+        <v>0.03564319331765207</v>
       </c>
       <c r="T6">
-        <v>0.1185954344298144</v>
+        <v>0.03808694969212274</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H7">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I7">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J7">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N7">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O7">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P7">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q7">
-        <v>0.4208687240266667</v>
+        <v>3.645842804413333</v>
       </c>
       <c r="R7">
-        <v>3.78781851624</v>
+        <v>32.81258523972</v>
       </c>
       <c r="S7">
-        <v>0.008377640453571126</v>
+        <v>0.07637772291397664</v>
       </c>
       <c r="T7">
-        <v>0.008747066845031607</v>
+        <v>0.08161430611164845</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H8">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I8">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J8">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>88.626007</v>
       </c>
       <c r="O8">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P8">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q8">
-        <v>0.9488891149466667</v>
+        <v>11.65400480580844</v>
       </c>
       <c r="R8">
-        <v>8.540002034520001</v>
+        <v>104.886043252276</v>
       </c>
       <c r="S8">
-        <v>0.01888819810432579</v>
+        <v>0.2441428217417124</v>
       </c>
       <c r="T8">
-        <v>0.01972110552086422</v>
+        <v>0.2608816580068989</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H9">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I9">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J9">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N9">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O9">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P9">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q9">
-        <v>0.1900169842266667</v>
+        <v>2.899430062799111</v>
       </c>
       <c r="R9">
-        <v>1.71015285804</v>
+        <v>26.094870565192</v>
       </c>
       <c r="S9">
-        <v>0.003782400266506962</v>
+        <v>0.06074092543892853</v>
       </c>
       <c r="T9">
-        <v>0.003949191678630551</v>
+        <v>0.06490542390038141</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H10">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I10">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J10">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N10">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O10">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P10">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q10">
-        <v>0.26181524314</v>
+        <v>4.777462479599333</v>
       </c>
       <c r="R10">
-        <v>1.57089145884</v>
+        <v>28.664774877596</v>
       </c>
       <c r="S10">
-        <v>0.005211587003438746</v>
+        <v>0.1000843220824146</v>
       </c>
       <c r="T10">
-        <v>0.003627600566883145</v>
+        <v>0.0712975126583343</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H11">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I11">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J11">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N11">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O11">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P11">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q11">
-        <v>0.2447804707333333</v>
+        <v>1.842833382803111</v>
       </c>
       <c r="R11">
-        <v>2.2030242366</v>
+        <v>16.585500445228</v>
       </c>
       <c r="S11">
-        <v>0.004872499800507445</v>
+        <v>0.03860600279254528</v>
       </c>
       <c r="T11">
-        <v>0.005087361016940538</v>
+        <v>0.04125289429231425</v>
       </c>
     </row>
   </sheetData>
